--- a/0-docs/项目管理-251124-独立站.xlsx
+++ b/0-docs/项目管理-251124-独立站.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13480" activeTab="1"/>
+    <workbookView windowWidth="22700" windowHeight="13440" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="251124" sheetId="1" r:id="rId2"/>
+    <sheet name="251124" sheetId="1" r:id="rId1"/>
+    <sheet name="子任务" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>一页纸项目管理</t>
   </si>
@@ -57,7 +57,10 @@
     <t>子任务、里程碑、时间线（甘特图）</t>
   </si>
   <si>
-    <t>1、网站素材整理</t>
+    <t>1、网站素材初步整理</t>
+  </si>
+  <si>
+    <t>2、开发简版网站，用来验证页面设计方案</t>
   </si>
   <si>
     <t>2、独立站用技术方案：Vercel + Next.js+ Formspree + Google Analytics实现发布（展示企业微信二维码、内容先只用中文）</t>
@@ -73,6 +76,39 @@
   </si>
   <si>
     <t>风险点：</t>
+  </si>
+  <si>
+    <t>任务</t>
+  </si>
+  <si>
+    <t>开始日期</t>
+  </si>
+  <si>
+    <t>结束日期</t>
+  </si>
+  <si>
+    <t>需求分析与规划</t>
+  </si>
+  <si>
+    <t>资料收集与整理</t>
+  </si>
+  <si>
+    <t>页面设计</t>
+  </si>
+  <si>
+    <t>调整页面设计</t>
+  </si>
+  <si>
+    <t>网站开发</t>
+  </si>
+  <si>
+    <t>资料二次收集</t>
+  </si>
+  <si>
+    <t>网站内容填充与优化</t>
+  </si>
+  <si>
+    <t>上线准备与发布</t>
   </si>
 </sst>
 </file>
@@ -688,8 +724,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -970,6 +1009,3320 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>独立站项目</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>子任务!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>需求分析与规划</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" forceAA="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>子任务!$B$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy"年"m"月"d"日"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>45985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>子任务!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>资料收集与整理</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" forceAA="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>子任务!$B$3:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy"年"m"月"d"日"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>45985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>子任务!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>页面设计</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" forceAA="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>子任务!$B$4:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy"年"m"月"d"日"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>45986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>子任务!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>调整页面设计</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" forceAA="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>子任务!$B$5:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy"年"m"月"d"日"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>45988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45990</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>子任务!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>网站开发</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" forceAA="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>子任务!$B$6:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy"年"m"月"d"日"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>45991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>子任务!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>资料二次收集</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" forceAA="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>子任务!$B$7:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy"年"m"月"d"日"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>45992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>子任务!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>网站内容填充与优化</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>子任务!$B$8:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy"年"m"月"d"日"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>45994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>子任务!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>上线准备与发布</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>子任务!$B$9:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy"年"m"月"d"日"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>45995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="264"/>
+        <c:overlap val="-58"/>
+        <c:axId val="304645147"/>
+        <c:axId val="742198731"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="304645147"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="742198731"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="742198731"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;yyyy&quot;年&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="304645147"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{f77ea5ff-2bc3-4de6-aeac-b496803ace19}"/>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+          <a:alpha val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>独立站项目</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>子任务!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>需求分析与规划</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" forceAA="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>子任务!$B$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy"年"m"月"d"日"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>45985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>子任务!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>资料收集与整理</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" forceAA="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>子任务!$B$3:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy"年"m"月"d"日"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>45985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>子任务!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>页面设计</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" forceAA="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>子任务!$B$4:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy"年"m"月"d"日"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>45986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>子任务!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>调整页面设计</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" forceAA="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>子任务!$B$5:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy"年"m"月"d"日"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>45988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45990</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>子任务!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>网站开发</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" forceAA="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>子任务!$B$6:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy"年"m"月"d"日"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>45991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>子任务!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>资料二次收集</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" forceAA="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>子任务!$B$7:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy"年"m"月"d"日"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>45992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>子任务!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>网站内容填充与优化</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>子任务!$B$8:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy"年"m"月"d"日"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>45994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>子任务!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>上线准备与发布</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>子任务!$B$9:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy"年"m"月"d"日"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>45995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="264"/>
+        <c:overlap val="-58"/>
+        <c:axId val="304645147"/>
+        <c:axId val="742198731"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="304645147"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="742198731"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="742198731"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;yyyy&quot;年&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="304645147"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+          <a:alpha val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>264795</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1" descr="7b0a202020202263686172745265734964223a20223230343735353037220a7d0a"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="3200400"/>
+        <a:ext cx="11235690" cy="5770880"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>62865</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>203835</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4" descr="7b0a202020202263686172745265734964223a20223230343735353037220a7d0a"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="62865" y="2169160"/>
+        <a:ext cx="11235690" cy="5770880"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
@@ -1217,29 +4570,501 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="WPS">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4874CB"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="EE822F"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="F2BA02"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="75BD42"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="30C0B4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="E54C5E"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0026E5"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="7E1FAD"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="WPS">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="WPS">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumOff val="17500"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="2700000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:hueOff val="-2520000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="2700000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:hueOff val="-4200000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="2700000" scaled="1"/>
+        </a:gradFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="phClr">
+              <a:alpha val="60000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="WPS">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4874CB"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="EE822F"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="F2BA02"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="75BD42"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="30C0B4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="E54C5E"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0026E5"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="7E1FAD"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="WPS">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="WPS">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumOff val="17500"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="2700000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:hueOff val="-2520000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="2700000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:hueOff val="-4200000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="2700000" scaled="1"/>
+        </a:gradFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="phClr">
+              <a:alpha val="60000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="1"/>
@@ -1257,7 +5082,7 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1265,7 +5090,7 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>251124</v>
       </c>
     </row>
@@ -1273,7 +5098,7 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1281,7 +5106,7 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1308,8 +5133,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1318,8 +5143,136 @@
         <v>14</v>
       </c>
     </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="22.4615384615385" customWidth="1"/>
+    <col min="2" max="2" width="15.8653846153846" customWidth="1"/>
+    <col min="3" max="3" width="18.9038461538462" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45985</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45985</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45985</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45986</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45988</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45990</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45991</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45992</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45994</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45995</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>